--- a/output/nycmig_inout_reg_boro_2021.xlsx
+++ b/output/nycmig_inout_reg_boro_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="22">
   <si>
     <t>YEAR</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>intl</t>
   </si>
   <si>
     <t>out_stco</t>
@@ -435,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,16 +501,16 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>4538</v>
+        <v>5488</v>
       </c>
       <c r="E3">
-        <v>1007.001638528955</v>
+        <v>1161.268659699382</v>
       </c>
       <c r="F3">
-        <v>1656.517695380131</v>
+        <v>1910.286945205484</v>
       </c>
       <c r="G3">
-        <v>13.48962209734421</v>
+        <v>12.86330894595539</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -521,16 +524,16 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>2308</v>
+        <v>6782</v>
       </c>
       <c r="E4">
-        <v>670.9103516864232</v>
+        <v>1092.007188621027</v>
       </c>
       <c r="F4">
-        <v>1103.647528524166</v>
+        <v>1796.35182528159</v>
       </c>
       <c r="G4">
-        <v>17.67106750897955</v>
+        <v>9.788176897912562</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -538,22 +541,22 @@
         <v>2021</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>226099</v>
+        <v>7413</v>
       </c>
       <c r="E5">
-        <v>8916.87246460327</v>
+        <v>1335.816548033449</v>
       </c>
       <c r="F5">
-        <v>14668.25520427238</v>
+        <v>2197.418221515024</v>
       </c>
       <c r="G5">
-        <v>2.397441458782465</v>
+        <v>10.95435766570802</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -564,19 +567,19 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>6690</v>
+        <v>226099</v>
       </c>
       <c r="E6">
-        <v>1383.098188849946</v>
+        <v>8916.87246460327</v>
       </c>
       <c r="F6">
-        <v>2275.196520658161</v>
+        <v>14668.25520427238</v>
       </c>
       <c r="G6">
-        <v>12.56785011290222</v>
+        <v>2.397441458782465</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -587,19 +590,19 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>3291</v>
+        <v>12987</v>
       </c>
       <c r="E7">
-        <v>820.3104899975375</v>
+        <v>1777.142425355942</v>
       </c>
       <c r="F7">
-        <v>1349.410756045949</v>
+        <v>2923.399289710525</v>
       </c>
       <c r="G7">
-        <v>15.15250655970714</v>
+        <v>8.318547330851741</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -607,22 +610,22 @@
         <v>2021</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>166699</v>
+        <v>30335</v>
       </c>
       <c r="E8">
-        <v>8532.327050693732</v>
+        <v>2498.849905456508</v>
       </c>
       <c r="F8">
-        <v>14035.67799839119</v>
+        <v>4110.608094475956</v>
       </c>
       <c r="G8">
-        <v>3.111491343576756</v>
+        <v>5.007607362078889</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -630,22 +633,22 @@
         <v>2021</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>21978</v>
+        <v>8973</v>
       </c>
       <c r="E9">
-        <v>2983.095866712969</v>
+        <v>1382.012138152194</v>
       </c>
       <c r="F9">
-        <v>4907.192700742834</v>
+        <v>2273.40996726036</v>
       </c>
       <c r="G9">
-        <v>8.251124478202904</v>
+        <v>9.362854779483296</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -656,19 +659,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>5908</v>
+        <v>166699</v>
       </c>
       <c r="E10">
-        <v>992.1630662345782</v>
+        <v>8532.327050693732</v>
       </c>
       <c r="F10">
-        <v>1632.108243955881</v>
+        <v>14035.67799839119</v>
       </c>
       <c r="G10">
-        <v>10.20884634542806</v>
+        <v>3.111491343576756</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -676,22 +679,22 @@
         <v>2021</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>138950</v>
+        <v>35209</v>
       </c>
       <c r="E11">
-        <v>7721.864541676447</v>
+        <v>3123.250198110936</v>
       </c>
       <c r="F11">
-        <v>12702.46717105775</v>
+        <v>5137.746575892489</v>
       </c>
       <c r="G11">
-        <v>3.378296206208504</v>
+        <v>5.392463118171958</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -699,22 +702,22 @@
         <v>2021</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>11047</v>
+        <v>62506</v>
       </c>
       <c r="E12">
-        <v>1863.025912326503</v>
+        <v>4238.099403034336</v>
       </c>
       <c r="F12">
-        <v>3064.677625777098</v>
+        <v>6971.673517991483</v>
       </c>
       <c r="G12">
-        <v>10.25200098240925</v>
+        <v>4.12176786338842</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -722,22 +725,22 @@
         <v>2021</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>2329</v>
+        <v>25715</v>
       </c>
       <c r="E13">
-        <v>549.5136031073298</v>
+        <v>3548.969766002523</v>
       </c>
       <c r="F13">
-        <v>903.9498771115575</v>
+        <v>5838.05526507415</v>
       </c>
       <c r="G13">
-        <v>14.34310101149194</v>
+        <v>8.38976639774787</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -745,22 +748,22 @@
         <v>2021</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>25937</v>
+        <v>138950</v>
       </c>
       <c r="E14">
-        <v>2943.293563340225</v>
+        <v>7721.864541676447</v>
       </c>
       <c r="F14">
-        <v>4841.717911694671</v>
+        <v>12702.46717105775</v>
       </c>
       <c r="G14">
-        <v>6.898393062873355</v>
+        <v>3.378296206208504</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -768,22 +771,22 @@
         <v>2021</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>268</v>
+        <v>12658</v>
       </c>
       <c r="E15">
-        <v>176.5914777105622</v>
+        <v>1900.826123031773</v>
       </c>
       <c r="F15">
-        <v>290.4929808338749</v>
+        <v>3126.858972387266</v>
       </c>
       <c r="G15">
-        <v>40.05613521538861</v>
+        <v>9.128751777684583</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -791,22 +794,137 @@
         <v>2021</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>309</v>
+        <v>15704</v>
       </c>
       <c r="E16">
-        <v>233.9328963613284</v>
+        <v>1760.920668286905</v>
       </c>
       <c r="F16">
-        <v>384.8196145143852</v>
+        <v>2896.714499331959</v>
       </c>
       <c r="G16">
-        <v>46.02215133853264</v>
+        <v>6.816533949056423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>2021</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>10572</v>
+      </c>
+      <c r="E17">
+        <v>1579.202931861513</v>
+      </c>
+      <c r="F17">
+        <v>2597.78882291219</v>
+      </c>
+      <c r="G17">
+        <v>9.080607096922384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2021</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>25937</v>
+      </c>
+      <c r="E18">
+        <v>2943.293563340225</v>
+      </c>
+      <c r="F18">
+        <v>4841.717911694671</v>
+      </c>
+      <c r="G18">
+        <v>6.898393062873355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2021</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>1062</v>
+      </c>
+      <c r="E19">
+        <v>312.5919864615854</v>
+      </c>
+      <c r="F19">
+        <v>514.2138177293079</v>
+      </c>
+      <c r="G19">
+        <v>17.89317548821604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>2021</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>2204</v>
+      </c>
+      <c r="E20">
+        <v>657.909606253017</v>
+      </c>
+      <c r="F20">
+        <v>1082.261302286213</v>
+      </c>
+      <c r="G20">
+        <v>18.14632710498781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>2021</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>668</v>
+      </c>
+      <c r="E21">
+        <v>241.9351152685364</v>
+      </c>
+      <c r="F21">
+        <v>397.9832646167424</v>
+      </c>
+      <c r="G21">
+        <v>22.0169189222045</v>
       </c>
     </row>
   </sheetData>
@@ -827,22 +945,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -879,16 +997,16 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>11146</v>
+        <v>26709</v>
       </c>
       <c r="E3">
-        <v>1972.301067281565</v>
+        <v>3485.987837041317</v>
       </c>
       <c r="F3">
-        <v>3244.435255678174</v>
+        <v>5734.449991932966</v>
       </c>
       <c r="G3">
-        <v>10.7569281729134</v>
+        <v>7.93418526442157</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -902,16 +1020,16 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5371</v>
+        <v>28761</v>
       </c>
       <c r="E4">
-        <v>883.3306572286507</v>
+        <v>3759.975146194453</v>
       </c>
       <c r="F4">
-        <v>1453.07893114113</v>
+        <v>6185.159115489876</v>
       </c>
       <c r="G4">
-        <v>9.997749449550364</v>
+        <v>7.947217332561124</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -948,16 +1066,16 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>23059</v>
+        <v>50051</v>
       </c>
       <c r="E6">
-        <v>4222.195779449361</v>
+        <v>5241.877850541731</v>
       </c>
       <c r="F6">
-        <v>6945.512057194199</v>
+        <v>8622.889064141147</v>
       </c>
       <c r="G6">
-        <v>11.13094394556098</v>
+        <v>6.366609827631417</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -971,16 +1089,16 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>9763</v>
+        <v>102231</v>
       </c>
       <c r="E7">
-        <v>1718.543962195905</v>
+        <v>6348.779012534616</v>
       </c>
       <c r="F7">
-        <v>2827.004817812264</v>
+        <v>10443.74147561944</v>
       </c>
       <c r="G7">
-        <v>10.7006819195225</v>
+        <v>3.775215080748867</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1017,16 +1135,16 @@
         <v>13</v>
       </c>
       <c r="D9">
-        <v>20544</v>
+        <v>49580</v>
       </c>
       <c r="E9">
-        <v>2487.095967187434</v>
+        <v>4397.71454280516</v>
       </c>
       <c r="F9">
-        <v>4091.27286602333</v>
+        <v>7234.240422914488</v>
       </c>
       <c r="G9">
-        <v>7.359386886970554</v>
+        <v>5.392058694621642</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1040,16 +1158,16 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>8881</v>
+        <v>80105</v>
       </c>
       <c r="E10">
-        <v>1205.417230671604</v>
+        <v>4883.2938473944</v>
       </c>
       <c r="F10">
-        <v>1982.911344454789</v>
+        <v>8033.018378963788</v>
       </c>
       <c r="G10">
-        <v>8.251057673901727</v>
+        <v>3.705845688016544</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1086,16 +1204,16 @@
         <v>13</v>
       </c>
       <c r="D12">
-        <v>30460</v>
+        <v>43930</v>
       </c>
       <c r="E12">
-        <v>3457.137247781754</v>
+        <v>4685.553393143653</v>
       </c>
       <c r="F12">
-        <v>5686.990772600985</v>
+        <v>7707.735331721309</v>
       </c>
       <c r="G12">
-        <v>6.899550854040984</v>
+        <v>6.483862338527864</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1109,16 +1227,16 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>9535</v>
+        <v>47901</v>
       </c>
       <c r="E13">
-        <v>1540.910526279836</v>
+        <v>3264.968943190731</v>
       </c>
       <c r="F13">
-        <v>2534.79781573033</v>
+        <v>5370.873911548752</v>
       </c>
       <c r="G13">
-        <v>9.824055838303838</v>
+        <v>4.143511726460052</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1155,16 +1273,16 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>1718</v>
+        <v>11194</v>
       </c>
       <c r="E15">
-        <v>1007.504764256725</v>
+        <v>1801.052261873597</v>
       </c>
       <c r="F15">
-        <v>1657.345337202313</v>
+        <v>2962.730970782067</v>
       </c>
       <c r="G15">
-        <v>35.64987789777205</v>
+        <v>9.780816481004518</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1178,16 +1296,16 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>2813</v>
+        <v>9272</v>
       </c>
       <c r="E16">
-        <v>774.6594090308333</v>
+        <v>1404.408220568364</v>
       </c>
       <c r="F16">
-        <v>1274.314727855721</v>
+        <v>2310.251522834959</v>
       </c>
       <c r="G16">
-        <v>16.74075982505958</v>
+        <v>9.207760991476539</v>
       </c>
     </row>
   </sheetData>
